--- a/rpa_basic/01_excel/quiz_practice.xlsx
+++ b/rpa_basic/01_excel/quiz_practice.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,16 @@
           <t>프로젝트</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>총점</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>성적</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -480,6 +490,15 @@
       <c r="G2" t="n">
         <v>12</v>
       </c>
+      <c r="H2">
+        <f>SUM(B2:G2)</f>
+        <v/>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -503,6 +522,15 @@
       <c r="G3" t="n">
         <v>18</v>
       </c>
+      <c r="H3">
+        <f>SUM(B3:G3)</f>
+        <v/>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -526,6 +554,15 @@
       <c r="G4" t="n">
         <v>4</v>
       </c>
+      <c r="H4">
+        <f>SUM(B4:G4)</f>
+        <v/>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -549,6 +586,15 @@
       <c r="G5" t="n">
         <v>18</v>
       </c>
+      <c r="H5">
+        <f>SUM(B5:G5)</f>
+        <v/>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -572,6 +618,15 @@
       <c r="G6" t="n">
         <v>15</v>
       </c>
+      <c r="H6">
+        <f>SUM(B6:G6)</f>
+        <v/>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -595,6 +650,15 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
+      <c r="H7">
+        <f>SUM(B7:G7)</f>
+        <v/>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -618,6 +682,15 @@
       <c r="G8" t="n">
         <v>18</v>
       </c>
+      <c r="H8">
+        <f>SUM(B8:G8)</f>
+        <v/>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -641,6 +714,15 @@
       <c r="G9" t="n">
         <v>17</v>
       </c>
+      <c r="H9">
+        <f>SUM(B9:G9)</f>
+        <v/>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -664,6 +746,15 @@
       <c r="G10" t="n">
         <v>19</v>
       </c>
+      <c r="H10">
+        <f>SUM(B10:G10)</f>
+        <v/>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -686,6 +777,15 @@
       </c>
       <c r="G11" t="n">
         <v>20</v>
+      </c>
+      <c r="H11">
+        <f>SUM(B11:G11)</f>
+        <v/>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
     </row>
   </sheetData>
